--- a/Image_Parameters.xlsx
+++ b/Image_Parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephmonaghan/Documents/annotate_imzML/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephmonaghan/Documents/nanoDESI_raw_to_imzml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D591C1B8-C4E1-FF46-BADA-2E8F167B1606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EAFB82-B98F-3F4B-995E-2A1A963E4078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="760" windowWidth="28040" windowHeight="17200" xr2:uid="{2799AF24-9C8E-5443-84F3-B56997C0E181}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -429,7 +429,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
